--- a/тест.xlsx
+++ b/тест.xlsx
@@ -27,12 +27,6 @@
     <t>Дата</t>
   </si>
   <si>
-    <t>вася пупкин</t>
-  </si>
-  <si>
-    <t>толя</t>
-  </si>
-  <si>
     <t>Александр Владимирович Путин</t>
   </si>
   <si>
@@ -91,6 +85,12 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>АлександрМихалыч</t>
+  </si>
+  <si>
+    <t>Толя</t>
   </si>
 </sst>
 </file>
@@ -429,7 +429,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -453,22 +453,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="I1" t="s">
         <v>2</v>
@@ -479,13 +479,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1">
         <v>12</v>
@@ -502,7 +502,7 @@
         <v>-35.1</v>
       </c>
       <c r="I2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -510,16 +510,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="F3" s="1">
         <v>4.4000000000000004</v>
@@ -533,7 +533,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -541,13 +541,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1">
         <v>2.4</v>
@@ -556,7 +556,7 @@
         <v>556</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H4" t="e">
         <f t="shared" si="1"/>
@@ -571,10 +571,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5" s="1">
         <v>898</v>
@@ -591,7 +591,7 @@
         <v>39</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
